--- a/RAM (Indev)/events/_________RAM Event IDs.xlsx
+++ b/RAM (Indev)/events/_________RAM Event IDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Victoria 2\mod\RAM (Indev)\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92FDCBD-8136-4C7B-A73F-51A21A641899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DE844-8FD5-4788-A221-E7B55BDAA622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CBBDC31A-830F-4605-9865-61BB8B807EB5}"/>
   </bookViews>
@@ -424,7 +424,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -457,32 +457,35 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -510,9 +513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,7 +553,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -656,7 +659,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,7 +801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -809,7 +812,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,57 +824,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
       <c r="L3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
       <c r="L4" s="8" t="s">
         <v>43</v>
       </c>
@@ -882,63 +885,63 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
       <c r="L6" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
       <c r="L7" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
       <c r="L8" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
       <c r="L9" s="15" t="s">
         <v>67</v>
       </c>
@@ -950,16 +953,16 @@
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -968,16 +971,16 @@
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -986,16 +989,16 @@
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1004,16 +1007,16 @@
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1022,32 +1025,32 @@
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1056,32 +1059,32 @@
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1090,64 +1093,64 @@
       <c r="B19" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -1156,16 +1159,16 @@
       <c r="B23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1174,16 +1177,16 @@
       <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -1192,16 +1195,16 @@
       <c r="B25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -1210,16 +1213,16 @@
       <c r="B26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1228,16 +1231,16 @@
       <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -1246,16 +1249,16 @@
       <c r="B28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
@@ -1264,16 +1267,16 @@
       <c r="B29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -1282,16 +1285,16 @@
       <c r="B30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1300,16 +1303,16 @@
       <c r="B31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -1318,16 +1321,16 @@
       <c r="B32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -1336,16 +1339,16 @@
       <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1354,16 +1357,16 @@
       <c r="B34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
@@ -1372,16 +1375,16 @@
       <c r="B35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -1390,16 +1393,16 @@
       <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1408,48 +1411,48 @@
       <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
@@ -1458,16 +1461,16 @@
       <c r="B40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
@@ -1476,32 +1479,32 @@
       <c r="B41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
@@ -1510,16 +1513,16 @@
       <c r="B43" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
@@ -1528,16 +1531,16 @@
       <c r="B44" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
@@ -1546,25 +1549,29 @@
       <c r="B45" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46"/>
+      <c r="A46" s="25">
+        <v>20050</v>
+      </c>
       <c r="B46" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47"/>
+      <c r="A47" s="25">
+        <v>20000</v>
+      </c>
       <c r="B47" t="s">
         <v>72</v>
       </c>
@@ -1598,16 +1605,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A1:J4"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C41:J41"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C40:J40"/>
     <mergeCell ref="B42:J42"/>
@@ -1624,17 +1632,16 @@
     <mergeCell ref="C29:J29"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A1:J4"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="B16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
